--- a/装修资料/装修材料价格表.xlsx
+++ b/装修资料/装修材料价格表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\default\Documents\my project\装修\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\default\Documents\my project\productivity-tools\装修资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AD995C-848F-41A3-AF81-5DA3E4C537FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1A7013-5A4A-453F-A9E2-19744D045671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>地板</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,10 +121,6 @@
   </si>
   <si>
     <t>全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48整的或者54整的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -625,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -661,7 +657,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>20</v>
@@ -669,7 +665,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -697,13 +693,11 @@
       <c r="C5" s="1">
         <v>8000</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
@@ -715,7 +709,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -727,7 +721,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>21</v>
@@ -739,7 +733,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -751,7 +745,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -763,7 +757,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
@@ -775,7 +769,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>21</v>
@@ -787,7 +781,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>21</v>
@@ -799,7 +793,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -823,7 +817,7 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -839,7 +833,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -851,7 +845,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -859,7 +853,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -939,7 +933,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -979,18 +973,18 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1">
         <f>SUM(C3:C30)</f>
-        <v>131800</v>
+        <v>132800</v>
       </c>
       <c r="D31" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="27.75" x14ac:dyDescent="0.75">
       <c r="A33" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1004,7 +998,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>20</v>
@@ -1024,7 +1018,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
@@ -1036,7 +1030,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
@@ -1048,7 +1042,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1056,7 +1050,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
@@ -1068,7 +1062,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
@@ -1080,7 +1074,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
@@ -1092,7 +1086,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1">
@@ -1102,7 +1096,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
@@ -1114,7 +1108,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
@@ -1126,7 +1120,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1">
@@ -1154,7 +1148,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1">
@@ -1164,7 +1158,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1">
@@ -1175,11 +1169,11 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51">
         <f>C31+C49</f>
-        <v>190800</v>
+        <v>191800</v>
       </c>
     </row>
   </sheetData>

--- a/装修资料/装修材料价格表.xlsx
+++ b/装修资料/装修材料价格表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\default\Documents\my project\productivity-tools\装修资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Default\Documents\my project\productivity-tools\装修资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1A7013-5A4A-453F-A9E2-19744D045671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669B89A3-B27D-4017-BF9A-541B7BA61BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>地板</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,10 @@
   </si>
   <si>
     <t>卫生间门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问价预算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +301,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -320,11 +324,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -337,6 +350,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -621,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:A48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -640,12 +659,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27.75" x14ac:dyDescent="0.75">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
@@ -661,6 +681,9 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -982,7 +1005,7 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="27.75" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:5" ht="27.75" x14ac:dyDescent="0.75">
       <c r="A33" s="7" t="s">
         <v>33</v>
       </c>
@@ -990,7 +1013,7 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1004,7 +1027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -1016,7 +1039,7 @@
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
@@ -1028,7 +1051,7 @@
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
@@ -1040,7 +1063,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
@@ -1048,7 +1071,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>27</v>
       </c>
@@ -1060,7 +1083,7 @@
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
@@ -1072,7 +1095,7 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -1084,7 +1107,7 @@
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
@@ -1094,7 +1117,7 @@
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
@@ -1105,8 +1128,11 @@
         <v>8000</v>
       </c>
       <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E43" s="1">
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
@@ -1117,8 +1143,9 @@
         <v>4000</v>
       </c>
       <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
@@ -1127,8 +1154,9 @@
         <v>7000</v>
       </c>
       <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
@@ -1138,7 +1166,7 @@
       </c>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,7 +1174,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
@@ -1179,7 +1207,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/装修资料/装修材料价格表.xlsx
+++ b/装修资料/装修材料价格表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Default\Documents\my project\productivity-tools\装修资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\default\Documents\my project\productivity-tools\装修资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669B89A3-B27D-4017-BF9A-541B7BA61BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358B4FD8-3924-4949-93C9-E1786AEF5B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,7 +355,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/装修资料/装修材料价格表.xlsx
+++ b/装修资料/装修材料价格表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\default\Documents\my project\productivity-tools\装修资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358B4FD8-3924-4949-93C9-E1786AEF5B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A11F51-32C6-4C34-91F2-DA99828B09A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -789,6 +789,9 @@
         <v>28000</v>
       </c>
       <c r="D11" s="1"/>
+      <c r="E11">
+        <v>26000</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
@@ -1050,6 +1053,9 @@
         <v>5000</v>
       </c>
       <c r="D36" s="1"/>
+      <c r="E36">
+        <v>4599</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
@@ -1082,6 +1088,9 @@
         <v>5000</v>
       </c>
       <c r="D39" s="1"/>
+      <c r="E39">
+        <v>4999</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
@@ -1184,7 +1193,7 @@
       </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
         <v>44</v>
       </c>
@@ -1195,13 +1204,17 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C51">
         <f>C31+C49</f>
         <v>191800</v>
+      </c>
+      <c r="E51">
+        <f>SUM(E3:E49)</f>
+        <v>54198</v>
       </c>
     </row>
   </sheetData>

--- a/装修资料/装修材料价格表.xlsx
+++ b/装修资料/装修材料价格表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\default\Documents\my project\productivity-tools\装修资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\productivity-tools\装修资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A11F51-32C6-4C34-91F2-DA99828B09A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0271F9-C4CF-4E82-B24A-F2853D1158B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -640,25 +631,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.06640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.9296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.06640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.9296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.9296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.75" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:14" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -669,7 +660,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -686,7 +677,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -694,7 +685,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +697,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -714,11 +705,11 @@
         <v>21</v>
       </c>
       <c r="C5" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -730,7 +721,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -742,7 +733,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -754,7 +745,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -766,7 +757,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -778,7 +769,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -786,14 +777,14 @@
         <v>21</v>
       </c>
       <c r="C11" s="1">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11">
         <v>26000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -805,7 +796,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -817,7 +808,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -825,7 +816,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -837,17 +828,17 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -857,7 +848,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -869,7 +860,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
@@ -877,7 +868,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
@@ -889,7 +880,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -897,7 +888,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -909,7 +900,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -921,7 +912,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -933,7 +924,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -945,7 +936,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -957,7 +948,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
@@ -965,7 +956,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,7 +966,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
@@ -985,7 +976,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
@@ -997,18 +988,18 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1">
         <f>SUM(C3:C30)</f>
-        <v>132800</v>
+        <v>128800</v>
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="33" spans="1:5" ht="27.75" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
         <v>33</v>
       </c>
@@ -1016,7 +1007,7 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1030,7 +1021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -1042,7 +1033,7 @@
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
@@ -1057,7 +1048,7 @@
         <v>4599</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
@@ -1069,7 +1060,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
@@ -1077,7 +1068,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>27</v>
       </c>
@@ -1092,7 +1083,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
@@ -1104,7 +1095,7 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -1116,7 +1107,7 @@
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
@@ -1126,7 +1117,7 @@
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
@@ -1141,7 +1132,7 @@
         <v>18600</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
@@ -1154,7 +1145,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
@@ -1165,7 +1156,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
@@ -1175,7 +1166,7 @@
       </c>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>14</v>
       </c>
@@ -1183,7 +1174,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
@@ -1193,7 +1184,7 @@
       </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>44</v>
       </c>
@@ -1204,13 +1195,13 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C51">
         <f>C31+C49</f>
-        <v>191800</v>
+        <v>187800</v>
       </c>
       <c r="E51">
         <f>SUM(E3:E49)</f>

--- a/装修资料/装修材料价格表.xlsx
+++ b/装修资料/装修材料价格表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\productivity-tools\装修资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0271F9-C4CF-4E82-B24A-F2853D1158B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDCC044-8CA2-4928-967A-1225554D9DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>地板</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洗手盆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>橱柜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,6 +232,14 @@
   </si>
   <si>
     <t>问价预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公卫洗手盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卫洗手盆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,6 +247,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -328,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -349,6 +356,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -629,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -641,6 +650,7 @@
     <col min="2" max="2" width="4.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.125" bestFit="1" customWidth="1"/>
@@ -651,7 +661,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -668,18 +678,18 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
+        <v>19</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -690,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>8000</v>
@@ -702,31 +712,37 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="D5" s="1"/>
+      <c r="E5" s="10">
+        <v>8000</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>2000</v>
       </c>
       <c r="D6" s="1"/>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>1000</v>
@@ -735,10 +751,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
         <v>500</v>
@@ -747,7 +763,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -759,7 +775,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -771,25 +787,25 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
         <v>26000</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11">
+      <c r="E11" s="10">
         <v>26000</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>10000</v>
@@ -798,10 +814,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
         <v>1000</v>
@@ -810,7 +826,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -818,7 +834,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -830,7 +846,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
@@ -838,9 +854,9 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
@@ -848,9 +864,9 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -860,17 +876,17 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -880,17 +896,17 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
@@ -900,7 +916,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -912,7 +928,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -924,293 +940,312 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="10">
+        <v>1300</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B25" s="1">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1">
-        <v>4000</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1">
         <v>1600</v>
       </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
         <v>4000</v>
       </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1">
-        <f>SUM(C3:C30)</f>
-        <v>128800</v>
-      </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="33" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A33" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>20</v>
-      </c>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1">
+        <f>SUM(C3:C31)</f>
+        <v>132800</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="10">
+        <f>SUM(E3:E31)</f>
+        <v>37300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1">
-        <v>2500</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36">
-        <v>4599</v>
-      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="D37" s="1"/>
+      <c r="E37" s="10">
+        <v>4599</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>7000</v>
+      </c>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1">
-        <v>5000</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39">
-        <v>4999</v>
-      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="D40" s="1"/>
+      <c r="E40" s="10">
+        <v>4999</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
       <c r="C42" s="1">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="1">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="1">
-        <v>18600</v>
-      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
       </c>
       <c r="C44" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="E44" s="11">
+        <v>18600</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
       <c r="C45" s="1">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="D46" s="1"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="C47" s="1">
+        <v>3000</v>
+      </c>
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="1">
-        <v>500</v>
-      </c>
+      <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>44</v>
+      <c r="A49" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1">
-        <f>SUM(C35:C48)</f>
+        <v>500</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1">
+        <f>SUM(C36:C49)</f>
         <v>59000</v>
       </c>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51">
-        <f>C31+C49</f>
-        <v>187800</v>
-      </c>
-      <c r="E51">
-        <f>SUM(E3:E49)</f>
-        <v>54198</v>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52">
+        <f>C32+C50</f>
+        <v>191800</v>
+      </c>
+      <c r="E52" s="10">
+        <f>SUM(E3:E50)</f>
+        <v>102798</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/装修资料/装修材料价格表.xlsx
+++ b/装修资料/装修材料价格表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\productivity-tools\装修资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDCC044-8CA2-4928-967A-1225554D9DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCE7E89-67A6-47A0-B1F1-F2D5A32B371D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>地板</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>淋浴隔断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>封阳台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,14 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>室内木门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫生间门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>问价预算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,6 +228,34 @@
   </si>
   <si>
     <t>主卫洗手盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公卫淋浴隔断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卫淋浴隔断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧木门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母房木门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多功能房木门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公卫卫生间门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卫卫生间门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -678,18 +694,18 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -700,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>8000</v>
@@ -712,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>8000</v>
@@ -724,10 +740,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>2000</v>
@@ -739,10 +755,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>1000</v>
@@ -751,10 +767,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>500</v>
@@ -763,376 +779,370 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6000</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2000</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>26000</v>
+        <v>6000</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="10">
-        <v>26000</v>
-      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1">
-        <v>10000</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <v>26000</v>
+      </c>
       <c r="D14" s="1"/>
+      <c r="E14" s="10">
+        <v>26000</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C16" s="1">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
+      <c r="A17" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1">
-        <v>10000</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
         <v>3000</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1600</v>
-      </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1300</v>
-      </c>
-      <c r="D24" s="1"/>
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1600</v>
+      </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="10">
-        <v>1300</v>
-      </c>
-      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="10">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1">
-        <v>4000</v>
+        <v>1300</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="10">
+        <v>1800</v>
+      </c>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
       <c r="C29" s="1">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D29" s="1"/>
+      <c r="E29" s="10">
+        <v>2500</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1">
-        <v>1600</v>
-      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
+      <c r="E30" s="10">
+        <v>1800</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1">
         <v>4000</v>
       </c>
       <c r="D31" s="1"/>
+      <c r="E31" s="10">
+        <v>1800</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1">
-        <f>SUM(C3:C31)</f>
-        <v>132800</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="10">
-        <f>SUM(E3:E31)</f>
-        <v>37300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A34" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="A32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
+      <c r="A36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1">
-        <v>2500</v>
+        <f>SUM(C3:C35)</f>
+        <v>132800</v>
       </c>
       <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="10">
-        <v>4599</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1">
-        <v>7000</v>
-      </c>
-      <c r="D38" s="1"/>
+      <c r="E36" s="10">
+        <f>SUM(E3:E35)</f>
+        <v>42400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="10">
-        <v>4999</v>
-      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="D41" s="1"/>
+      <c r="E41" s="10">
+        <v>4599</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
@@ -1144,108 +1154,155 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="1">
-        <v>6000</v>
-      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="11">
-        <v>18600</v>
+      <c r="E44" s="10">
+        <v>4999</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" s="1">
         <v>4000</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
       <c r="C46" s="1">
         <v>7000</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1">
+        <v>8000</v>
+      </c>
       <c r="D48" s="1"/>
+      <c r="E48" s="11">
+        <v>18600</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
       <c r="C49" s="1">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="D49" s="1"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>43</v>
+      <c r="A50" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1">
-        <f>SUM(C36:C49)</f>
+        <v>7000</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1">
+        <v>500</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1">
+        <f>SUM(C40:C53)</f>
         <v>59000</v>
       </c>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52">
-        <f>C32+C50</f>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56">
+        <f>C36+C54</f>
         <v>191800</v>
       </c>
-      <c r="E52" s="10">
-        <f>SUM(E3:E50)</f>
-        <v>102798</v>
+      <c r="E56" s="10">
+        <f>SUM(E3:E54)</f>
+        <v>112998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A38:D38"/>
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/装修资料/装修材料价格表.xlsx
+++ b/装修资料/装修材料价格表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\productivity-tools\装修资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCE7E89-67A6-47A0-B1F1-F2D5A32B371D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68380CA-30A5-48FF-B44D-E25615ECD8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>地板</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>垃圾处理器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>装修材料--硬装</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微蒸烤一体机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>洗碗机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全屋定制衣柜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>床垫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>问价预算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,6 +240,26 @@
   </si>
   <si>
     <t>主卫卫生间门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母房床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧床垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母房床垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置过滤器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,7 +268,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -363,6 +367,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -372,8 +378,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -654,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -666,7 +670,7 @@
     <col min="2" max="2" width="4.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.125" bestFit="1" customWidth="1"/>
@@ -676,13 +680,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
@@ -694,18 +698,18 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -716,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>8000</v>
@@ -728,37 +732,37 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>8000</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <v>8000</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>2000</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="10">
+      <c r="E6" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <v>1000</v>
@@ -767,10 +771,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>500</v>
@@ -779,7 +783,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -787,7 +791,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -795,7 +799,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
@@ -807,7 +811,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -815,7 +819,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -827,37 +831,40 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1">
         <v>26000</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="10">
+      <c r="E14" s="7">
         <v>26000</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
         <v>10000</v>
       </c>
       <c r="D15" s="1"/>
+      <c r="E15" s="7">
+        <v>25000</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
         <v>1000</v>
@@ -866,7 +873,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -874,7 +881,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -906,7 +913,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -918,7 +925,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -926,7 +933,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -935,10 +942,13 @@
         <v>5000</v>
       </c>
       <c r="D23" s="1"/>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -967,7 +977,7 @@
         <v>800</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="10">
+      <c r="E26" s="7">
         <v>500</v>
       </c>
     </row>
@@ -985,19 +995,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="10">
+      <c r="E28" s="7">
         <v>1800</v>
       </c>
-      <c r="F28" s="10"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1">
         <v>3</v>
@@ -1006,24 +1016,24 @@
         <v>3000</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="10">
+      <c r="E29" s="7">
         <v>2500</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="10">
+      <c r="E30" s="7">
         <v>1800</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
@@ -1032,13 +1042,13 @@
         <v>4000</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="10">
+      <c r="E31" s="7">
         <v>1800</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1066,7 +1076,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
@@ -1078,7 +1088,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1">
@@ -1086,18 +1096,18 @@
         <v>132800</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="10">
+      <c r="E36" s="7">
         <f>SUM(E3:E35)</f>
-        <v>42400</v>
+        <v>67400</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="A38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -1107,10 +1117,10 @@
         <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1127,7 +1137,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
@@ -1136,13 +1146,13 @@
         <v>5000</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="10">
+      <c r="E41" s="7">
         <v>4599</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
@@ -1151,67 +1161,73 @@
         <v>7000</v>
       </c>
       <c r="D42" s="1"/>
+      <c r="E42" s="7">
+        <v>6000</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5000</v>
+      </c>
       <c r="D43" s="1"/>
+      <c r="E43" s="7">
+        <v>4999</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="10">
-        <v>4999</v>
+      <c r="E44" s="7">
+        <v>4000</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B45" s="1">
         <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="1">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B46" s="1"/>
       <c r="C46" s="1">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="1">
-        <v>6000</v>
-      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B48" s="1">
         <v>2</v>
@@ -1220,84 +1236,95 @@
         <v>8000</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="11">
-        <v>18600</v>
-      </c>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1">
-        <v>2</v>
-      </c>
-      <c r="C49" s="1">
-        <v>4000</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="11"/>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2</v>
+      </c>
       <c r="C50" s="1">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="E50" s="11"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="D51" s="1"/>
+      <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="C52" s="1">
+        <v>3000</v>
+      </c>
       <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="1">
-        <v>500</v>
-      </c>
+      <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>42</v>
+      <c r="A54" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1">
-        <f>SUM(C40:C53)</f>
+        <v>500</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1">
+        <f>SUM(C40:C54)</f>
         <v>59000</v>
       </c>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56">
-        <f>C36+C54</f>
+      <c r="D55" s="1"/>
+      <c r="E55" s="7">
+        <f>SUM(E40:E54)</f>
+        <v>19598</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57">
+        <f>C36+C55</f>
         <v>191800</v>
       </c>
-      <c r="E56" s="10">
-        <f>SUM(E3:E54)</f>
-        <v>112998</v>
+      <c r="E57" s="7">
+        <f>SUM(E36,E55)</f>
+        <v>86998</v>
       </c>
     </row>
   </sheetData>

--- a/装修资料/装修材料价格表.xlsx
+++ b/装修资料/装修材料价格表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\productivity-tools\装修资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68380CA-30A5-48FF-B44D-E25615ECD8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8F29C1-507E-43A9-B0E5-6BFA87BD1FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,7 +661,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1085,6 +1085,9 @@
         <v>4000</v>
       </c>
       <c r="D35" s="1"/>
+      <c r="E35" s="7">
+        <v>700</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
@@ -1098,7 +1101,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="7">
         <f>SUM(E3:E35)</f>
-        <v>67400</v>
+        <v>68100</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
@@ -1324,7 +1327,7 @@
       </c>
       <c r="E57" s="7">
         <f>SUM(E36,E55)</f>
-        <v>86998</v>
+        <v>87698</v>
       </c>
     </row>
   </sheetData>

--- a/装修资料/装修材料价格表.xlsx
+++ b/装修资料/装修材料价格表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\productivity-tools\装修资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8F29C1-507E-43A9-B0E5-6BFA87BD1FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ABDA77-73C4-4F19-8B75-1E62C80D48FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>地板</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,6 +260,34 @@
   </si>
   <si>
     <t>前置过滤器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橱柜台面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公卫浴霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卫浴霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东京造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的梦想家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的mate16L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -843,6 +871,9 @@
       <c r="E14" s="7">
         <v>26000</v>
       </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -995,34 +1026,37 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="7">
-        <v>1800</v>
-      </c>
-      <c r="F28" s="7"/>
+        <v>330</v>
+      </c>
+      <c r="F28" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1">
-        <v>3000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="7">
-        <v>2500</v>
+        <v>330</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1030,177 +1064,176 @@
       <c r="E30" s="7">
         <v>1800</v>
       </c>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="7">
         <v>1800</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="7">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="7">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1">
-        <v>1600</v>
-      </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1">
-        <v>4000</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1">
-        <f>SUM(C3:C35)</f>
+        <v>10000</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1">
+        <f>SUM(C3:C38)</f>
         <v>132800</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="7">
-        <f>SUM(E3:E35)</f>
-        <v>68100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A38" s="9" t="s">
+      <c r="D39" s="1"/>
+      <c r="E39" s="7">
+        <f>SUM(E3:E38)</f>
+        <v>70680</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A41" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1">
-        <v>2500</v>
-      </c>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="7">
-        <v>4599</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1">
-        <v>7000</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="7">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
       </c>
       <c r="C43" s="1">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="7">
-        <v>4999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="F43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="7">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B45" s="1">
         <v>1</v>
@@ -1209,130 +1242,178 @@
         <v>7000</v>
       </c>
       <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E45" s="7">
+        <v>6000</v>
+      </c>
+      <c r="F45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
       <c r="C46" s="1">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E46" s="7">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4000</v>
+      </c>
       <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E47" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="C49" s="1">
+        <v>6000</v>
+      </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2</v>
-      </c>
-      <c r="C50" s="1">
-        <v>4000</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
       <c r="C51" s="1">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="1">
-        <v>3000</v>
-      </c>
+      <c r="C52" s="1"/>
       <c r="D52" s="1"/>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4000</v>
+      </c>
       <c r="D53" s="1"/>
+      <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1">
-        <v>500</v>
+        <v>7000</v>
       </c>
       <c r="D54" s="1"/>
+      <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>39</v>
+      <c r="A55" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1">
-        <f>SUM(C40:C54)</f>
+        <v>3000</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1">
+        <v>500</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1">
+        <f>SUM(C43:C57)</f>
         <v>59000</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="7">
-        <f>SUM(E40:E54)</f>
-        <v>19598</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
+      <c r="D58" s="1"/>
+      <c r="E58" s="7">
+        <f>SUM(E43:E57)</f>
+        <v>21598</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C57">
-        <f>C36+C55</f>
+      <c r="C60">
+        <f>C39+C58</f>
         <v>191800</v>
       </c>
-      <c r="E57" s="7">
-        <f>SUM(E36,E55)</f>
-        <v>87698</v>
+      <c r="E60" s="7">
+        <f>SUM(E39,E58)</f>
+        <v>92278</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A41:D41"/>
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/装修资料/装修材料价格表.xlsx
+++ b/装修资料/装修材料价格表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\productivity-tools\装修资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ABDA77-73C4-4F19-8B75-1E62C80D48FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD9AA68-95C1-4580-A15D-0482E46B60B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>地板</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,15 +279,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>美的梦想家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>美的mate16L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海尔</t>
+    <t>方太03-G6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷鸟鹏7pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的空气梦想家1拖5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠达HD45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔、美的508</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -699,7 +711,7 @@
     <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
     <col min="7" max="7" width="4.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.875" bestFit="1" customWidth="1"/>
@@ -872,7 +884,7 @@
         <v>26000</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1010,6 +1022,9 @@
       <c r="D26" s="1"/>
       <c r="E26" s="7">
         <v>500</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1135,6 +1150,9 @@
         <v>10000</v>
       </c>
       <c r="D36" s="1"/>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -1213,7 +1231,7 @@
         <v>2000</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1246,7 +1264,7 @@
         <v>6000</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1261,7 +1279,10 @@
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="7">
-        <v>4999</v>
+        <v>5600</v>
+      </c>
+      <c r="F46" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1277,6 +1298,9 @@
       <c r="D47" s="1"/>
       <c r="E47" s="7">
         <v>4000</v>
+      </c>
+      <c r="F47" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1395,7 +1419,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="7">
         <f>SUM(E43:E57)</f>
-        <v>21598</v>
+        <v>22199</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1408,7 +1432,7 @@
       </c>
       <c r="E60" s="7">
         <f>SUM(E39,E58)</f>
-        <v>92278</v>
+        <v>92879</v>
       </c>
     </row>
   </sheetData>

--- a/装修资料/装修材料价格表.xlsx
+++ b/装修资料/装修材料价格表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\productivity-tools\装修资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\default\Documents\my project\productivity-tools\装修资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ABDA77-73C4-4F19-8B75-1E62C80D48FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF0778C-DBDF-4940-9DF0-D019DECD11CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -688,26 +697,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="27.75" x14ac:dyDescent="0.75">
       <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
@@ -718,7 +727,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -735,7 +744,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -743,7 +752,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,8 +763,11 @@
         <v>8000</v>
       </c>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E4" s="7">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -770,7 +782,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -785,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -797,7 +809,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -809,7 +821,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -817,7 +829,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -825,7 +837,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -837,7 +849,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -845,7 +857,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
@@ -857,7 +869,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -875,7 +887,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -890,7 +902,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -902,7 +914,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -910,7 +922,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -922,7 +934,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -932,7 +944,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -942,7 +954,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -954,7 +966,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
@@ -962,7 +974,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
@@ -977,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -985,7 +997,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -997,7 +1009,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1012,7 +1024,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1024,7 +1036,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -1038,7 +1050,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -1054,7 +1066,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
@@ -1066,7 +1078,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
@@ -1081,7 +1093,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
@@ -1092,7 +1104,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -1107,7 +1119,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -1115,7 +1127,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -1126,7 +1138,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1136,7 +1148,7 @@
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
@@ -1146,7 +1158,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -1161,7 +1173,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
         <v>40</v>
       </c>
@@ -1173,10 +1185,10 @@
       <c r="D39" s="1"/>
       <c r="E39" s="7">
         <f>SUM(E3:E38)</f>
-        <v>70680</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
+        <v>76880</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="27.75" x14ac:dyDescent="0.75">
       <c r="A41" s="9" t="s">
         <v>28</v>
       </c>
@@ -1184,7 +1196,7 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -1198,7 +1210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -1216,7 +1228,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
@@ -1231,7 +1243,7 @@
         <v>4599</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,7 +1261,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
@@ -1264,7 +1276,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>24</v>
       </c>
@@ -1279,7 +1291,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>22</v>
       </c>
@@ -1291,7 +1303,7 @@
       </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>25</v>
       </c>
@@ -1301,7 +1313,7 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -1309,7 +1321,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -1322,7 +1334,7 @@
       <c r="D51" s="1"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -1331,7 +1343,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -1344,7 +1356,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>27</v>
       </c>
@@ -1355,7 +1367,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -1365,7 +1377,7 @@
       </c>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
@@ -1373,7 +1385,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>32</v>
       </c>
@@ -1383,7 +1395,7 @@
       </c>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="5" t="s">
         <v>39</v>
       </c>
@@ -1398,7 +1410,7 @@
         <v>21598</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="6" t="s">
         <v>41</v>
       </c>
@@ -1408,7 +1420,7 @@
       </c>
       <c r="E60" s="7">
         <f>SUM(E39,E58)</f>
-        <v>92278</v>
+        <v>98478</v>
       </c>
     </row>
   </sheetData>

--- a/装修资料/装修材料价格表.xlsx
+++ b/装修资料/装修材料价格表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\productivity-tools\装修资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732A9C99-34D1-45E5-ADD9-191DC792B465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D77DC82-3CA1-45B4-9F0F-8F21FA3CA07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>地板</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,6 +316,10 @@
   </si>
   <si>
     <t>产品型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华帝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1284,7 +1288,9 @@
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">

--- a/装修资料/装修材料价格表.xlsx
+++ b/装修资料/装修材料价格表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\productivity-tools\装修资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\default\Documents\my project\productivity-tools\装修资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D77DC82-3CA1-45B4-9F0F-8F21FA3CA07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2088B91-8697-4CF1-AF29-1CFDCBFC201F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t>地板</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,7 +328,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>华帝</t>
+    <t>浪鲸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝旗舰店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -732,25 +745,25 @@
   <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.86328125" customWidth="1"/>
+    <col min="7" max="7" width="10.46484375" customWidth="1"/>
+    <col min="8" max="8" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="27.75" x14ac:dyDescent="0.75">
       <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
@@ -763,7 +776,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -786,7 +799,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -797,7 +810,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,7 +825,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -829,7 +842,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -846,7 +859,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -861,7 +874,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -876,7 +889,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -887,7 +900,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -898,7 +911,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -913,7 +926,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -924,7 +937,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
@@ -939,7 +952,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -960,7 +973,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -977,7 +990,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -992,7 +1005,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1003,7 +1016,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1018,7 +1031,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1031,7 +1044,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1044,7 +1057,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1059,7 +1072,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
@@ -1070,7 +1083,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
@@ -1087,7 +1100,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1098,7 +1111,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1113,7 +1126,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1132,7 +1145,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1147,7 +1160,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -1162,7 +1175,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -1179,7 +1192,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
@@ -1192,7 +1205,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
@@ -1209,7 +1222,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
@@ -1222,7 +1235,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -1239,7 +1252,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -1250,7 +1263,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -1263,7 +1276,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1278,7 +1291,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
@@ -1287,13 +1300,17 @@
         <v>1600</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="8">
+        <v>1000</v>
+      </c>
       <c r="F37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G37" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -1310,7 +1327,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
         <v>40</v>
       </c>
@@ -1322,17 +1339,17 @@
       <c r="D39" s="1"/>
       <c r="E39" s="8">
         <f>SUM(E3:E38)</f>
-        <v>69680</v>
+        <v>70680</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E40" s="8"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="27.75" x14ac:dyDescent="0.75">
       <c r="A41" s="9" t="s">
         <v>28</v>
       </c>
@@ -1340,7 +1357,7 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -1354,7 +1371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -1372,7 +1389,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
@@ -1390,7 +1407,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -1408,7 +1425,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
@@ -1426,7 +1443,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>24</v>
       </c>
@@ -1444,7 +1461,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>22</v>
       </c>
@@ -1456,7 +1473,7 @@
       </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>25</v>
       </c>
@@ -1466,7 +1483,7 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -1474,7 +1491,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -1487,7 +1504,7 @@
       <c r="D51" s="1"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -1496,7 +1513,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -1509,7 +1526,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>27</v>
       </c>
@@ -1520,7 +1537,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -1530,7 +1547,7 @@
       </c>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
@@ -1538,7 +1555,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,7 +1565,7 @@
       </c>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="5" t="s">
         <v>39</v>
       </c>
@@ -1563,7 +1580,7 @@
         <v>24100</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="6" t="s">
         <v>41</v>
       </c>
@@ -1573,7 +1590,7 @@
       </c>
       <c r="E60" s="7">
         <f>SUM(E39,E58)</f>
-        <v>93780</v>
+        <v>94780</v>
       </c>
     </row>
   </sheetData>

--- a/装修资料/装修材料价格表.xlsx
+++ b/装修资料/装修材料价格表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\default\Documents\my project\productivity-tools\装修资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\productivity-tools\装修资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2088B91-8697-4CF1-AF29-1CFDCBFC201F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20941EB3-80A5-4FEA-9F33-870E24DE4DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -312,10 +303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>美的空气梦想家1拖4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>观音桥重百</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,6 +320,10 @@
   </si>
   <si>
     <t>淘宝旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的空气梦想家1拖5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,26 +735,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.86328125" customWidth="1"/>
-    <col min="7" max="7" width="10.46484375" customWidth="1"/>
-    <col min="8" max="8" width="6.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.86328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.75" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:14" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
@@ -776,7 +767,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -793,13 +784,13 @@
         <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -810,7 +801,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -825,7 +816,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -842,7 +833,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -859,7 +850,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -874,7 +865,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -889,7 +880,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -900,7 +891,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -911,7 +902,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -926,7 +917,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -937,7 +928,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
@@ -952,7 +943,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -964,16 +955,16 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="8">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -990,7 +981,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -1005,7 +996,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1016,7 +1007,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1031,7 +1022,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,7 +1035,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,7 +1048,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1072,7 +1063,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
@@ -1083,7 +1074,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
@@ -1100,7 +1091,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1111,7 +1102,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,7 +1117,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1145,7 +1136,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1160,7 +1151,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -1175,7 +1166,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -1192,7 +1183,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
@@ -1205,7 +1196,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
@@ -1222,7 +1213,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
@@ -1235,7 +1226,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -1252,7 +1243,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -1263,7 +1254,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -1276,7 +1267,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1291,7 +1282,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
@@ -1304,13 +1295,13 @@
         <v>1000</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -1327,7 +1318,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>40</v>
       </c>
@@ -1339,17 +1330,17 @@
       <c r="D39" s="1"/>
       <c r="E39" s="8">
         <f>SUM(E3:E38)</f>
-        <v>70680</v>
+        <v>73680</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E40" s="8"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="27.75" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A41" s="9" t="s">
         <v>28</v>
       </c>
@@ -1357,7 +1348,7 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -1371,7 +1362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -1389,7 +1380,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
@@ -1407,7 +1398,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -1425,7 +1416,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
@@ -1443,7 +1434,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>24</v>
       </c>
@@ -1461,7 +1452,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>22</v>
       </c>
@@ -1473,7 +1464,7 @@
       </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>25</v>
       </c>
@@ -1483,7 +1474,7 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -1491,7 +1482,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -1504,7 +1495,7 @@
       <c r="D51" s="1"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -1513,7 +1504,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -1526,7 +1517,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>27</v>
       </c>
@@ -1537,7 +1528,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -1547,7 +1538,7 @@
       </c>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
@@ -1555,7 +1546,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>32</v>
       </c>
@@ -1565,7 +1556,7 @@
       </c>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>39</v>
       </c>
@@ -1580,7 +1571,7 @@
         <v>24100</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>41</v>
       </c>
@@ -1590,7 +1581,7 @@
       </c>
       <c r="E60" s="7">
         <f>SUM(E39,E58)</f>
-        <v>94780</v>
+        <v>97780</v>
       </c>
     </row>
   </sheetData>

--- a/装修资料/装修材料价格表.xlsx
+++ b/装修资料/装修材料价格表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\productivity-tools\装修资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20941EB3-80A5-4FEA-9F33-870E24DE4DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FDDB8A-FB96-45D8-9BC2-8BFC4355EA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>地板</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +324,14 @@
   </si>
   <si>
     <t>美的空气梦想家1拖5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -887,7 +895,9 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8">
+        <v>1000</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
@@ -898,7 +908,9 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8">
+        <v>1000</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
@@ -913,95 +925,101 @@
         <v>6000</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="8">
+        <v>1000</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1">
+        <v>26000</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="E12" s="8">
+        <v>28000</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C13" s="1">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="8">
+        <v>25000</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1">
-        <v>26000</v>
+        <v>1000</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="8">
-        <v>28000</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1">
-        <v>10000</v>
-      </c>
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="8">
-        <v>25000</v>
-      </c>
+      <c r="E15" s="8"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="8">
+        <v>8000</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>35</v>
+      <c r="A17" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1">
+        <v>4000</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="8"/>
       <c r="F17" s="1"/>
@@ -1009,13 +1027,11 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="8"/>
@@ -1024,11 +1040,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
       <c r="C19" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="8"/>
@@ -1036,68 +1054,66 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>10</v>
+      <c r="A20" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1">
-        <v>10000</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="8"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>42</v>
+      <c r="A21" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="8"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>5000</v>
-      </c>
+      <c r="A23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
+      <c r="E23" s="8"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="8"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1269,324 +1285,343 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="8">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1">
-        <v>1600</v>
+        <v>10000</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="1">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="8">
         <v>1000</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
       <c r="C39" s="1">
-        <f>SUM(C3:C38)</f>
-        <v>132800</v>
+        <v>4000</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="8">
-        <f>SUM(E3:E38)</f>
-        <v>73680</v>
+        <v>1000</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E40" s="8"/>
+      <c r="A40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1">
+        <f>SUM(C3:C39)</f>
+        <v>132800</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="8">
+        <f>SUM(E3:E39)</f>
+        <v>84680</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E41" s="8"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A42" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1">
-        <v>2500</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="7">
-        <v>2000</v>
-      </c>
-      <c r="F43" t="s">
-        <v>63</v>
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="7">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B45" s="1">
         <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="7">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
       </c>
       <c r="C46" s="1">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="7">
-        <v>5600</v>
+        <v>6000</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
       </c>
       <c r="C47" s="1">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="7">
-        <v>4000</v>
+        <v>5600</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
       </c>
       <c r="C48" s="1">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="D48" s="1"/>
+      <c r="E48" s="7">
+        <v>4000</v>
+      </c>
+      <c r="F48" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
       <c r="C49" s="1">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="C50" s="1">
+        <v>6000</v>
+      </c>
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="1">
-        <v>2</v>
-      </c>
-      <c r="C51" s="1">
-        <v>8000</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1">
+        <v>8000</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="1">
-        <v>2</v>
-      </c>
-      <c r="C53" s="1">
-        <v>4000</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2</v>
+      </c>
       <c r="C54" s="1">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="D55" s="1"/>
+      <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="C56" s="1">
+        <v>3000</v>
+      </c>
       <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1">
-        <v>500</v>
-      </c>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1">
-        <f>SUM(C43:C57)</f>
+        <v>500</v>
+      </c>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1">
+        <f>SUM(C44:C58)</f>
         <v>59000</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="7">
-        <f>SUM(E43:E57)</f>
+      <c r="D60" s="1"/>
+      <c r="E60" s="7">
+        <f>SUM(E44:E58)</f>
         <v>24100</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C60">
-        <f>C39+C58</f>
+      <c r="C62">
+        <f>C40+C60</f>
         <v>191800</v>
       </c>
-      <c r="E60" s="7">
-        <f>SUM(E39,E58)</f>
-        <v>97780</v>
+      <c r="E62" s="7">
+        <f>SUM(E40,E60)</f>
+        <v>108780</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/装修资料/装修材料价格表.xlsx
+++ b/装修资料/装修材料价格表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\productivity-tools\装修资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FDDB8A-FB96-45D8-9BC2-8BFC4355EA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B107FC8-3176-46D4-8C14-5C184C1E4AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>地板</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,6 +332,10 @@
   </si>
   <si>
     <t>窗帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世界石材市场 纯色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1280,7 +1284,9 @@
       <c r="E35" s="8">
         <v>1620</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">

--- a/装修资料/装修材料价格表.xlsx
+++ b/装修资料/装修材料价格表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\productivity-tools\装修资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B107FC8-3176-46D4-8C14-5C184C1E4AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D83914C-6E32-433D-9EB3-06DBA717FDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
   <si>
     <t>地板</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +336,10 @@
   </si>
   <si>
     <t>新世界石材市场 纯色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -985,7 +989,9 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">

--- a/装修资料/装修材料价格表.xlsx
+++ b/装修资料/装修材料价格表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\productivity-tools\装修资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\default\Documents\my project\productivity-tools\装修资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D83914C-6E32-433D-9EB3-06DBA717FDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6173107-527E-46A7-B144-939BD6A11E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
   <si>
     <t>地板</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,10 +304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海尔、美的508</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>方太Z7T+一个灶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,6 +345,14 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天猫京东旗舰店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -751,26 +764,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.86328125" customWidth="1"/>
+    <col min="7" max="7" width="10.46484375" customWidth="1"/>
+    <col min="8" max="8" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="27.75" x14ac:dyDescent="0.75">
       <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
@@ -783,7 +796,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,13 +813,13 @@
         <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -817,7 +830,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -832,7 +845,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -849,7 +862,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -866,7 +879,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -881,7 +894,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -896,7 +909,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -909,7 +922,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -922,7 +935,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -939,7 +952,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -954,13 +967,13 @@
         <v>28000</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -977,7 +990,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -990,11 +1003,11 @@
       <c r="D14" s="1"/>
       <c r="E14" s="8"/>
       <c r="F14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1005,7 +1018,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1022,7 +1035,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1035,7 +1048,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1048,7 +1061,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1063,7 +1076,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -1074,7 +1087,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
@@ -1091,7 +1104,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -1102,7 +1115,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -1113,7 +1126,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -1128,7 +1141,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1143,7 +1156,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1162,7 +1175,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1177,7 +1190,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -1192,7 +1205,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -1209,7 +1222,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
@@ -1222,7 +1235,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
@@ -1239,7 +1252,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
@@ -1252,7 +1265,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -1269,7 +1282,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -1280,7 +1293,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -1291,13 +1304,13 @@
         <v>1620</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1306,7 +1319,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -1321,7 +1334,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -1334,13 +1347,13 @@
         <v>1000</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
@@ -1357,7 +1370,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
         <v>40</v>
       </c>
@@ -1374,12 +1387,12 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E41" s="8"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="27.75" x14ac:dyDescent="0.75">
       <c r="A42" s="9" t="s">
         <v>28</v>
       </c>
@@ -1387,7 +1400,7 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -1401,7 +1414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -1419,7 +1432,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1434,10 +1447,10 @@
         <v>6500</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -1449,13 +1462,16 @@
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="7">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="G46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>23</v>
       </c>
@@ -1473,7 +1489,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,7 +1507,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
@@ -1503,7 +1519,7 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>25</v>
       </c>
@@ -1513,7 +1529,7 @@
       </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>54</v>
       </c>
@@ -1521,7 +1537,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
@@ -1534,7 +1550,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
@@ -1543,7 +1559,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>57</v>
       </c>
@@ -1556,7 +1572,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>27</v>
       </c>
@@ -1567,7 +1583,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>12</v>
       </c>
@@ -1577,7 +1593,7 @@
       </c>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -1585,7 +1601,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>32</v>
       </c>
@@ -1595,15 +1611,15 @@
       </c>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
         <v>39</v>
       </c>
@@ -1615,10 +1631,10 @@
       <c r="D60" s="1"/>
       <c r="E60" s="7">
         <f>SUM(E44:E58)</f>
-        <v>24100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>22600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
         <v>41</v>
       </c>
@@ -1628,7 +1644,7 @@
       </c>
       <c r="E62" s="7">
         <f>SUM(E40,E60)</f>
-        <v>108780</v>
+        <v>107280</v>
       </c>
     </row>
   </sheetData>

--- a/装修资料/装修材料价格表.xlsx
+++ b/装修资料/装修材料价格表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\default\Documents\my project\productivity-tools\装修资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EC59DA-7760-4B47-8A76-9111618178ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBD6F71-D362-4C22-A2FA-74FD6A65DD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>地板</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抽油烟机、燃气灶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>软装总价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,10 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>方太Z7T+一个灶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>观音桥重百</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,6 +329,58 @@
   </si>
   <si>
     <t>地漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔176xs+376</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重百</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要找团，迷瞪7500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信群友tcl内购，筒隐陆奥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问价地点及备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e0颗粒板杂牌+双面pet柜门+5mm密度背板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷瞪1799</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫地机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃气灶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽油烟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方太5kw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方太ZD12、方太F2.i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊轨3.5平双门欧派克滑轮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -426,11 +470,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -711,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -724,9 +766,10 @@
     <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.3984375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.86328125" customWidth="1"/>
-    <col min="6" max="6" width="10.46484375" customWidth="1"/>
+    <col min="6" max="6" width="19.73046875" customWidth="1"/>
     <col min="7" max="7" width="6.1328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.86328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.265625" bestFit="1" customWidth="1"/>
   </cols>
@@ -754,13 +797,13 @@
         <v>14</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
@@ -839,7 +882,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -851,7 +894,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -863,7 +906,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1">
         <v>6000</v>
@@ -887,15 +930,15 @@
         <v>28000</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1">
         <v>10000</v>
@@ -905,11 +948,13 @@
         <v>25000</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1">
         <v>1000</v>
@@ -917,7 +962,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="7"/>
       <c r="E14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -935,7 +980,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -979,7 +1024,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -989,7 +1034,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1">
         <v>2000</v>
@@ -1013,7 +1058,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1">
         <v>800</v>
@@ -1023,7 +1068,7 @@
         <v>500</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -1041,7 +1086,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1049,13 +1094,13 @@
         <v>330</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1063,13 +1108,13 @@
         <v>330</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1081,7 +1126,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1">
         <v>3000</v>
@@ -1095,7 +1140,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1107,7 +1152,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="1">
         <v>4000</v>
@@ -1121,7 +1166,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1141,7 +1186,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1149,18 +1194,22 @@
         <v>1620</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="1"/>
+      <c r="D34" s="7">
+        <v>2000</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
@@ -1189,10 +1238,10 @@
         <v>1000</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
@@ -1211,7 +1260,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1">
         <f>SUM(B3:B37)</f>
@@ -1220,18 +1269,10 @@
       <c r="C38" s="1"/>
       <c r="D38" s="7">
         <f>SUM(D3:D37)</f>
-        <v>84680</v>
+        <v>86680</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
     </row>
     <row r="40" spans="1:6" ht="27.75" x14ac:dyDescent="0.75">
       <c r="A40" s="8" t="s">
@@ -1254,13 +1295,13 @@
         <v>14</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
@@ -1275,227 +1316,272 @@
         <v>2000</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B43" s="1">
         <v>5000</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="7">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="1">
-        <v>7000</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="7">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B45" s="1">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="7">
-        <v>5600</v>
+        <v>4500</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" s="1">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="7">
-        <v>4000</v>
+        <v>5600</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F46" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B47" s="1">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="D47" s="7">
+        <v>4000</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="1">
+        <v>7000</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="7">
+        <v>8000</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B49" s="1">
         <v>6000</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="7"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="1">
-        <v>8000</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="7"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="I50">
+        <v>4006171215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="B51" s="1">
+        <v>8000</v>
+      </c>
       <c r="C51" s="1"/>
       <c r="D51" s="7"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="1">
-        <v>4000</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="7"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B53" s="1">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="7"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B54" s="1">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="7"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B55" s="1">
+        <v>3000</v>
+      </c>
       <c r="C55" s="1"/>
-      <c r="D55" s="7"/>
+      <c r="D55" s="7">
+        <v>1000</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="1">
-        <v>500</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="7"/>
+      <c r="D56" s="7">
+        <v>800</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="B57" s="1">
+        <v>500</v>
+      </c>
       <c r="C57" s="1"/>
       <c r="D57" s="7"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" s="1">
-        <f>SUM(B42:B56)</f>
-        <v>59000</v>
-      </c>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="7">
-        <f>SUM(D42:D56)</f>
-        <v>22600</v>
-      </c>
+      <c r="D58" s="7"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60">
-        <f>B38+B58</f>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="7">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="1">
+        <f>SUM(B42:B57)</f>
+        <v>59000</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="7">
+        <f>SUM(D42:D57)</f>
+        <v>32900</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62">
+        <f>B38+B60</f>
         <v>173800</v>
       </c>
-      <c r="D60" s="6">
-        <f>SUM(D38,D58)</f>
-        <v>107280</v>
+      <c r="D62" s="6">
+        <f>SUM(D38,D60)</f>
+        <v>119580</v>
       </c>
     </row>
   </sheetData>
